--- a/biology/Botanique/Chrysophyceae/Chrysophyceae.xlsx
+++ b/biology/Botanique/Chrysophyceae/Chrysophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chrysophyceae, ou Chrysophycées en français, sont une classe d’algues unicellulaires de couleur brun-jaune vivant souvent parmi le plancton en eau salée ou en eau douce. Leur couleur caractéristique est due aux pigments caroténoïdes qu'elles contiennent. Une chrysophycée possède généralement deux flagelles situés à l'une des extrémités de la cellule[2]. Elles sont toutes photosynthétiques. Par exemple   :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chrysophyceae, ou Chrysophycées en français, sont une classe d’algues unicellulaires de couleur brun-jaune vivant souvent parmi le plancton en eau salée ou en eau douce. Leur couleur caractéristique est due aux pigments caroténoïdes qu'elles contiennent. Une chrysophycée possède généralement deux flagelles situés à l'une des extrémités de la cellule. Elles sont toutes photosynthétiques. Par exemple   :
 Dinobryon, vivant en colonies en eau douce.
 Uroglena apiculata, dont le lac Léman a connu un développement exceptionnel en 1999.
-Des chrysophytes font partie des rares espèces d'algues connues pour significativement modifier le gout et l'odeur de l'eau[3]. 
+Des chrysophytes font partie des rares espèces d'algues connues pour significativement modifier le gout et l'odeur de l'eau. 
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Chrysophyceae vient du grec χρυσός / khrusos, or, en référence à leurs cellules colorées par un ou plusieurs plastes jaunes ou brun. Le nom vernaculaire anglophone de ces algues est d'ailleurs « golden algae » (algue dorée).
 </t>
@@ -545,9 +559,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 février 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 février 2022) :
 Apoikiales Boenigk &amp; Grossmann
 Chromulinales Pascher
 Chrysosaccales Bourrelly
@@ -562,7 +578,7 @@
 Synurales R.A.Andersen
 Thallochrysidales Bourrelly
 Chrysophyceae ordo incertae sedis
-Selon Paleobiology Database                   (15 août 2017)[5] :
+Selon Paleobiology Database                   (15 août 2017) :
 non-classé Phytomastigophora
 Autres ordres :
 Isochrysidales
